--- a/data/trans_camb/P12_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 17,79</t>
+          <t>4,6; 18,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,16; -4,08</t>
+          <t>-13,35; -4,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 22,07</t>
+          <t>7,35; 22,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,94; -6,92</t>
+          <t>-17,48; -7,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 18,15</t>
+          <t>8,11; 18,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -6,72</t>
+          <t>-13,58; -6,52</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,2; 186,81</t>
+          <t>28,42; 183,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-83,08; -38,25</t>
+          <t>-84,15; -41,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,71; 159,58</t>
+          <t>34,24; 156,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,81; -48,08</t>
+          <t>-79,29; -51,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,41; 145,58</t>
+          <t>46,96; 151,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-77,25; -52,45</t>
+          <t>-78,09; -52,26</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,45; -7,02</t>
+          <t>-16,14; -6,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,03; -12,71</t>
+          <t>-20,99; -12,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -4,78</t>
+          <t>-15,18; -4,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,22; -9,21</t>
+          <t>-20,17; -9,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -20,92</t>
+          <t>-30,6; -20,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,35; -14,09</t>
+          <t>-23,7; -13,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -9,25</t>
+          <t>-16,5; -9,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,66; -18,02</t>
+          <t>-24,51; -18,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,75; -10,52</t>
+          <t>-18,16; -10,45</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,79; -34,23</t>
+          <t>-63,72; -31,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,96; -64,11</t>
+          <t>-84,44; -63,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,98; -23,33</t>
+          <t>-60,59; -22,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,15; -28,76</t>
+          <t>-54,29; -28,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,15; -65,35</t>
+          <t>-81,31; -65,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,74; -42,64</t>
+          <t>-61,89; -41,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,65; -34,88</t>
+          <t>-54,13; -34,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-80,06; -67,88</t>
+          <t>-80,15; -67,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,6; -38,63</t>
+          <t>-58,87; -38,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,81</t>
+          <t>3,21; 12,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 10,18</t>
+          <t>1,44; 9,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 7,31</t>
+          <t>-1,26; 6,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 19,47</t>
+          <t>8,22; 19,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 11,44</t>
+          <t>1,46; 11,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 9,6</t>
+          <t>1,27; 9,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 14,56</t>
+          <t>7,71; 14,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 9,63</t>
+          <t>3,11; 9,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,93</t>
+          <t>1,68; 7,57</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,96; 320,18</t>
+          <t>35,32; 282,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,42; 240,82</t>
+          <t>14,16; 235,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 164,48</t>
+          <t>-18,71; 154,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>74,03; 283,51</t>
+          <t>73,1; 278,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,58; 162,86</t>
+          <t>10,74; 167,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 153,08</t>
+          <t>8,59; 142,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>85,37; 244,41</t>
+          <t>84,09; 241,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,36; 155,73</t>
+          <t>34,19; 164,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,57; 115,47</t>
+          <t>17,21; 126,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 11,99</t>
+          <t>2,2; 11,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 9,61</t>
+          <t>-1,03; 9,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 8,53</t>
+          <t>-3,4; 8,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,67; 24,92</t>
+          <t>13,76; 25,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 14,42</t>
+          <t>1,68; 13,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 3,06</t>
+          <t>-7,57; 3,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,65; 17,17</t>
+          <t>9,93; 17,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 10,5</t>
+          <t>2,15; 10,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 4,65</t>
+          <t>-3,48; 4,1</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,15; 115,99</t>
+          <t>13,83; 118,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 89,17</t>
+          <t>-6,75; 92,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 78,46</t>
+          <t>-22,77; 77,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>62,19; 167,13</t>
+          <t>62,51; 163,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,34; 93,02</t>
+          <t>7,02; 90,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 19,76</t>
+          <t>-34,41; 20,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>54,84; 128,74</t>
+          <t>54,97; 126,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,9; 72,21</t>
+          <t>12,48; 73,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 33,01</t>
+          <t>-20,47; 29,34</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,73; -6,48</t>
+          <t>-21,15; -6,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 3,21</t>
+          <t>-13,58; 2,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,09; 21,97</t>
+          <t>4,76; 21,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 3,22</t>
+          <t>-14,41; 3,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-19,29; -1,77</t>
+          <t>-17,73; -1,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,68; 23,48</t>
+          <t>7,99; 24,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,07; -3,41</t>
+          <t>-15,48; -3,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,29; -1,5</t>
+          <t>-12,97; -1,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,11; 21,27</t>
+          <t>9,4; 21,13</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-74,18; -31,27</t>
+          <t>-74,16; -32,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,01; 15,58</t>
+          <t>-47,24; 15,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,5; 112,08</t>
+          <t>16,59; 107,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 11,06</t>
+          <t>-39,2; 13,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-50,73; -5,9</t>
+          <t>-47,53; -3,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,31; 85,66</t>
+          <t>21,49; 91,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-47,56; -12,91</t>
+          <t>-49,72; -14,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,3; -5,4</t>
+          <t>-41,54; -6,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>28,3; 85,98</t>
+          <t>30,42; 86,65</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 9,83</t>
+          <t>-1,36; 10,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 5,8</t>
+          <t>-4,15; 5,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 8,48</t>
+          <t>-1,4; 8,74</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,76; 14,87</t>
+          <t>2,75; 15,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 11,53</t>
+          <t>-1,58; 11,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 6,82</t>
+          <t>-4,14; 6,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,38; 11,04</t>
+          <t>2,28; 11,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 7,25</t>
+          <t>-1,27; 6,89</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 5,95</t>
+          <t>-1,31; 5,78</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 129,61</t>
+          <t>-11,24; 132,98</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 79,08</t>
+          <t>-33,52; 73,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 116,95</t>
+          <t>-11,42; 120,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,41; 129,04</t>
+          <t>15,02; 139,55</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 101,87</t>
+          <t>-9,31; 95,5</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 62,89</t>
+          <t>-23,59; 58,89</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>16,42; 107,35</t>
+          <t>16,64; 109,88</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 74,98</t>
+          <t>-9,55; 67,71</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 59,48</t>
+          <t>-8,74; 56,54</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,5; 9,35</t>
+          <t>1,15; 9,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 5,58</t>
+          <t>-2,02; 5,36</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,83</t>
+          <t>1,87; 10,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,46; 10,59</t>
+          <t>1,93; 10,98</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 4,25</t>
+          <t>-4,07; 4,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,68; 44,67</t>
+          <t>8,82; 46,12</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,94; 9,2</t>
+          <t>2,87; 8,63</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 3,8</t>
+          <t>-2,09; 4,0</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,78; 32,73</t>
+          <t>7,7; 32,96</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>10,55; 97,3</t>
+          <t>8,52; 94,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 57,82</t>
+          <t>-16,01; 54,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>16,23; 110,29</t>
+          <t>10,39; 102,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,24; 69,11</t>
+          <t>9,64; 75,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 28,58</t>
+          <t>-20,96; 27,92</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>49,5; 278,07</t>
+          <t>49,44; 300,98</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,32; 71,58</t>
+          <t>18,7; 66,14</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 30,96</t>
+          <t>-12,69; 31,08</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>50,53; 247,45</t>
+          <t>51,89; 234,49</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-14,56; -5,34</t>
+          <t>-14,24; -5,51</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-24,88; -17,56</t>
+          <t>-24,9; -17,75</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-20,87; -12,75</t>
+          <t>-20,98; -13,22</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 0,17</t>
+          <t>-8,59; 0,63</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-23,36; -15,42</t>
+          <t>-23,17; -15,45</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-15,24; -7,06</t>
+          <t>-15,06; -7,22</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -3,87</t>
+          <t>-10,0; -3,99</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -17,3</t>
+          <t>-23,01; -17,62</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-16,83; -11,23</t>
+          <t>-17,04; -11,43</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-49,95; -22,02</t>
+          <t>-49,92; -22,5</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-86,74; -73,38</t>
+          <t>-86,33; -72,85</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-73,37; -53,79</t>
+          <t>-73,52; -55,18</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 0,89</t>
+          <t>-28,51; 2,85</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-76,34; -59,57</t>
+          <t>-76,72; -59,74</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-50,0; -27,71</t>
+          <t>-49,4; -28,01</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-34,63; -15,11</t>
+          <t>-35,06; -15,32</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-79,09; -68,24</t>
+          <t>-79,37; -68,6</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-58,45; -43,88</t>
+          <t>-59,91; -44,56</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,83</t>
+          <t>-3,05; 0,65</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -3,41</t>
+          <t>-6,97; -3,51</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -1,48</t>
+          <t>-5,13; -1,55</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,94</t>
+          <t>1,48; 5,75</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -3,91</t>
+          <t>-7,5; -3,59</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,11</t>
+          <t>-3,55; 7,72</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,69</t>
+          <t>-0,15; 2,63</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -4,21</t>
+          <t>-6,94; -4,14</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,37</t>
+          <t>-3,51; 3,38</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 4,84</t>
+          <t>-17,14; 3,97</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-38,7; -21,26</t>
+          <t>-39,25; -21,78</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-28,16; -9,16</t>
+          <t>-29,13; -9,61</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>7,11; 27,76</t>
+          <t>6,07; 26,32</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-33,12; -18,32</t>
+          <t>-32,09; -16,98</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 32,17</t>
+          <t>-15,68; 35,97</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 14,05</t>
+          <t>-0,77; 13,76</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-33,27; -22,0</t>
+          <t>-33,46; -21,85</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 18,04</t>
+          <t>-17,41; 18,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 18,36</t>
+          <t>4,97; 18,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,35; -4,07</t>
+          <t>-13,29; -4,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 22,07</t>
+          <t>6,92; 22,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,48; -7,56</t>
+          <t>-17,91; -7,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,11; 18,38</t>
+          <t>8,31; 18,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -6,52</t>
+          <t>-13,57; -6,89</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,42; 183,76</t>
+          <t>34,16; 191,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,15; -41,09</t>
+          <t>-84,04; -36,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,24; 156,09</t>
+          <t>33,87; 151,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,29; -51,11</t>
+          <t>-79,61; -49,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,96; 151,44</t>
+          <t>47,87; 138,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,09; -52,26</t>
+          <t>-78,13; -53,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,14; -6,5</t>
+          <t>-16,23; -6,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,99; -12,16</t>
+          <t>-21,15; -12,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,18; -4,44</t>
+          <t>-15,49; -4,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,17; -9,23</t>
+          <t>-20,49; -9,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -20,97</t>
+          <t>-30,92; -21,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,7; -13,23</t>
+          <t>-23,51; -13,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,5; -9,3</t>
+          <t>-16,75; -9,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,51; -18,21</t>
+          <t>-24,7; -17,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,16; -10,45</t>
+          <t>-18,4; -11,13</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,72; -31,8</t>
+          <t>-66,02; -33,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-84,44; -63,6</t>
+          <t>-84,32; -64,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,59; -22,29</t>
+          <t>-61,43; -22,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,29; -28,07</t>
+          <t>-53,56; -29,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,31; -65,32</t>
+          <t>-81,28; -65,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,89; -41,49</t>
+          <t>-62,1; -41,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,13; -34,12</t>
+          <t>-54,06; -34,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-80,15; -67,78</t>
+          <t>-80,22; -67,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,87; -38,8</t>
+          <t>-59,62; -41,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 12,54</t>
+          <t>3,08; 12,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 9,92</t>
+          <t>1,39; 10,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 6,63</t>
+          <t>-0,71; 6,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,22; 19,15</t>
+          <t>7,88; 19,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 11,35</t>
+          <t>1,12; 11,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,61</t>
+          <t>1,27; 9,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,71; 14,88</t>
+          <t>7,29; 14,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 9,6</t>
+          <t>2,78; 9,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,57</t>
+          <t>1,5; 7,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35,32; 282,19</t>
+          <t>31,52; 280,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,16; 235,27</t>
+          <t>15,52; 224,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 154,75</t>
+          <t>-10,41; 172,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>73,1; 278,53</t>
+          <t>68,22; 280,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,74; 167,95</t>
+          <t>9,2; 168,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 142,7</t>
+          <t>10,27; 136,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>84,09; 241,79</t>
+          <t>74,46; 233,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,19; 164,61</t>
+          <t>29,37; 148,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,21; 126,8</t>
+          <t>14,94; 130,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,2; 11,67</t>
+          <t>2,23; 11,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 9,66</t>
+          <t>-1,02; 9,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 8,15</t>
+          <t>-3,4; 8,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,76; 25,11</t>
+          <t>14,17; 24,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 13,97</t>
+          <t>2,51; 14,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 3,29</t>
+          <t>-7,08; 4,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,39</t>
+          <t>9,44; 17,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 10,1</t>
+          <t>1,92; 10,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 4,1</t>
+          <t>-3,4; 3,71</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,83; 118,06</t>
+          <t>12,8; 114,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 92,49</t>
+          <t>-7,25; 92,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 77,03</t>
+          <t>-21,92; 76,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>62,51; 163,37</t>
+          <t>64,22; 162,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,02; 90,18</t>
+          <t>11,34; 92,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 20,72</t>
+          <t>-32,85; 29,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>54,97; 126,1</t>
+          <t>51,01; 121,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,48; 73,87</t>
+          <t>11,08; 72,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 29,34</t>
+          <t>-19,99; 26,65</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,15; -6,92</t>
+          <t>-21,56; -6,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 2,94</t>
+          <t>-12,28; 3,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,76; 21,32</t>
+          <t>4,3; 20,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 3,7</t>
+          <t>-13,96; 4,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,73; -1,49</t>
+          <t>-17,77; -0,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,99; 24,36</t>
+          <t>6,97; 23,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,48; -3,79</t>
+          <t>-15,08; -3,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-12,97; -1,63</t>
+          <t>-13,19; -1,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,4; 21,13</t>
+          <t>9,52; 21,11</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-74,16; -32,52</t>
+          <t>-75,06; -33,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,24; 15,7</t>
+          <t>-43,35; 16,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,59; 107,69</t>
+          <t>15,12; 103,29</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-39,2; 13,82</t>
+          <t>-37,93; 16,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,53; -3,79</t>
+          <t>-47,96; -1,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>21,49; 91,6</t>
+          <t>17,45; 89,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-49,72; -14,99</t>
+          <t>-49,03; -14,56</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-41,54; -6,04</t>
+          <t>-42,15; -5,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>30,42; 86,65</t>
+          <t>30,02; 86,24</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 10,0</t>
+          <t>-1,55; 9,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 5,4</t>
+          <t>-4,73; 5,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 8,74</t>
+          <t>-1,94; 8,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,75; 15,18</t>
+          <t>3,0; 15,75</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 11,09</t>
+          <t>-2,18; 11,33</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 6,62</t>
+          <t>-4,1; 6,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,28; 11,07</t>
+          <t>2,3; 11,28</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 6,89</t>
+          <t>-1,28; 7,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 5,78</t>
+          <t>-1,17; 6,0</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 132,98</t>
+          <t>-13,25; 132,87</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 73,56</t>
+          <t>-37,04; 73,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 120,4</t>
+          <t>-15,58; 111,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,02; 139,55</t>
+          <t>15,06; 137,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 95,5</t>
+          <t>-12,99; 101,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 58,89</t>
+          <t>-23,03; 63,4</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>16,64; 109,88</t>
+          <t>16,02; 108,8</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 67,71</t>
+          <t>-10,23; 69,26</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 56,54</t>
+          <t>-8,72; 59,5</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,15; 9,28</t>
+          <t>1,04; 9,56</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 5,36</t>
+          <t>-2,24; 5,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,87; 10,31</t>
+          <t>2,53; 10,5</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,93; 10,98</t>
+          <t>1,15; 10,5</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 4,3</t>
+          <t>-4,14; 4,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,82; 46,12</t>
+          <t>8,56; 43,88</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,63</t>
+          <t>2,83; 8,73</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 4,0</t>
+          <t>-2,0; 3,76</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,7; 32,96</t>
+          <t>7,42; 31,86</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>8,52; 94,76</t>
+          <t>7,2; 101,05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 54,75</t>
+          <t>-16,91; 55,16</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>10,39; 102,74</t>
+          <t>14,44; 99,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>9,64; 75,42</t>
+          <t>6,07; 71,17</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 27,92</t>
+          <t>-21,14; 28,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>49,44; 300,98</t>
+          <t>46,42; 280,65</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,7; 66,14</t>
+          <t>17,93; 68,21</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 31,08</t>
+          <t>-13,23; 29,29</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>51,89; 234,49</t>
+          <t>49,41; 224,6</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-14,24; -5,51</t>
+          <t>-14,11; -5,5</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-24,9; -17,75</t>
+          <t>-25,0; -17,9</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-20,98; -13,22</t>
+          <t>-20,76; -12,93</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 0,63</t>
+          <t>-8,57; 0,58</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-23,17; -15,45</t>
+          <t>-22,97; -15,34</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -7,22</t>
+          <t>-15,26; -7,05</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-10,0; -3,99</t>
+          <t>-9,66; -3,88</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-23,01; -17,62</t>
+          <t>-22,72; -17,67</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-17,04; -11,43</t>
+          <t>-17,02; -11,13</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-49,92; -22,5</t>
+          <t>-49,13; -22,73</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-86,33; -72,85</t>
+          <t>-86,47; -73,94</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-73,52; -55,18</t>
+          <t>-72,73; -54,05</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 2,85</t>
+          <t>-28,26; 2,21</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-76,72; -59,74</t>
+          <t>-76,07; -59,21</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-49,4; -28,01</t>
+          <t>-49,54; -26,95</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-35,06; -15,32</t>
+          <t>-33,72; -14,74</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-79,37; -68,6</t>
+          <t>-79,16; -68,8</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-59,91; -44,56</t>
+          <t>-59,0; -43,45</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 0,65</t>
+          <t>-2,9; 0,7</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -3,51</t>
+          <t>-6,8; -3,5</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-5,13; -1,55</t>
+          <t>-5,19; -1,39</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,48; 5,75</t>
+          <t>1,62; 5,57</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -3,59</t>
+          <t>-7,56; -3,9</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 7,72</t>
+          <t>-3,61; 7,95</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,63</t>
+          <t>-0,06; 2,66</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-6,94; -4,14</t>
+          <t>-6,77; -4,13</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,38</t>
+          <t>-3,4; 3,59</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 3,97</t>
+          <t>-16,12; 4,47</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-39,25; -21,78</t>
+          <t>-38,17; -21,72</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-29,13; -9,61</t>
+          <t>-29,54; -9,19</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>6,07; 26,32</t>
+          <t>6,92; 25,92</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-32,09; -16,98</t>
+          <t>-32,3; -17,71</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 35,97</t>
+          <t>-15,76; 37,1</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 13,76</t>
+          <t>-0,34; 13,88</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-33,46; -21,85</t>
+          <t>-33,27; -21,92</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 18,66</t>
+          <t>-17,12; 18,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces</t>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 18,18</t>
+          <t>4,95; 17,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,29; -4,16</t>
+          <t>-13,16; -4,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 22,11</t>
+          <t>7,37; 22,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -7,15</t>
+          <t>-16,94; -6,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 18,28</t>
+          <t>8,25; 18,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,57; -6,89</t>
+          <t>-13,91; -6,72</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,16; 191,96</t>
+          <t>33,2; 186,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,04; -36,63</t>
+          <t>-83,08; -38,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,87; 151,53</t>
+          <t>33,71; 159,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,61; -49,13</t>
+          <t>-78,81; -48,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,87; 138,08</t>
+          <t>47,41; 145,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,13; -53,41</t>
+          <t>-77,25; -52,45</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,23; -6,89</t>
+          <t>-16,45; -7,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,15; -12,53</t>
+          <t>-21,03; -12,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,49; -4,97</t>
+          <t>-15,11; -4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,49; -9,77</t>
+          <t>-20,22; -9,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,92; -21,08</t>
+          <t>-30,6; -20,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,51; -13,2</t>
+          <t>-24,35; -14,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -9,22</t>
+          <t>-16,67; -9,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,7; -17,89</t>
+          <t>-24,66; -18,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -11,13</t>
+          <t>-17,75; -10,52</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,02; -33,1</t>
+          <t>-64,79; -34,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-84,32; -64,01</t>
+          <t>-83,96; -64,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,43; -22,84</t>
+          <t>-60,98; -23,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,56; -29,41</t>
+          <t>-54,15; -28,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,28; -65,55</t>
+          <t>-81,15; -65,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,1; -41,32</t>
+          <t>-62,74; -42,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,06; -34,87</t>
+          <t>-54,65; -34,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-80,22; -67,33</t>
+          <t>-80,06; -67,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,62; -41,14</t>
+          <t>-57,6; -38,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,08; 12,46</t>
+          <t>3,65; 12,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 10,12</t>
+          <t>1,38; 10,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 6,98</t>
+          <t>-1,11; 7,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,88; 19,34</t>
+          <t>8,25; 19,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 11,22</t>
+          <t>1,33; 11,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,41</t>
+          <t>0,83; 9,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,29; 14,62</t>
+          <t>7,43; 14,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,39</t>
+          <t>2,87; 9,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 7,6</t>
+          <t>1,56; 6,93</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,52; 280,02</t>
+          <t>45,96; 320,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,52; 224,44</t>
+          <t>14,42; 240,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 172,7</t>
+          <t>-16,19; 164,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>68,22; 280,73</t>
+          <t>74,03; 283,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,2; 168,66</t>
+          <t>10,58; 162,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,27; 136,38</t>
+          <t>8,14; 153,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,46; 233,04</t>
+          <t>85,37; 244,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,37; 148,2</t>
+          <t>31,36; 155,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,94; 130,8</t>
+          <t>17,57; 115,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 11,98</t>
+          <t>2,23; 11,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 9,91</t>
+          <t>-0,92; 9,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 8,59</t>
+          <t>-3,54; 8,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,17; 24,88</t>
+          <t>13,67; 24,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,51; 14,57</t>
+          <t>2,26; 14,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 4,35</t>
+          <t>-7,52; 3,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,44; 17,01</t>
+          <t>9,65; 17,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 10,25</t>
+          <t>2,19; 10,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,71</t>
+          <t>-3,52; 4,65</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,8; 114,79</t>
+          <t>12,15; 115,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 92,5</t>
+          <t>-6,56; 89,17</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 76,04</t>
+          <t>-24,88; 78,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>64,22; 162,29</t>
+          <t>62,19; 167,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,34; 92,68</t>
+          <t>10,34; 93,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 29,34</t>
+          <t>-34,12; 19,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,01; 121,11</t>
+          <t>54,84; 128,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,08; 72,55</t>
+          <t>11,9; 72,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 26,65</t>
+          <t>-20,14; 33,01</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,56; -6,87</t>
+          <t>-20,73; -6,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 3,09</t>
+          <t>-12,66; 3,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,3; 20,8</t>
+          <t>5,09; 21,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 4,22</t>
+          <t>-14,69; 3,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,77; -0,77</t>
+          <t>-19,29; -1,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,97; 23,68</t>
+          <t>7,68; 23,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -3,83</t>
+          <t>-15,07; -3,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,19; -1,17</t>
+          <t>-13,29; -1,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,52; 21,11</t>
+          <t>9,11; 21,27</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-75,06; -33,22</t>
+          <t>-74,18; -31,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,35; 16,42</t>
+          <t>-45,01; 15,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>15,12; 103,29</t>
+          <t>17,5; 112,08</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 16,35</t>
+          <t>-40,99; 11,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,96; -1,32</t>
+          <t>-50,73; -5,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>17,45; 89,66</t>
+          <t>19,31; 85,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-49,03; -14,56</t>
+          <t>-47,56; -12,91</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,15; -5,3</t>
+          <t>-42,3; -5,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>30,02; 86,24</t>
+          <t>28,3; 85,98</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 9,92</t>
+          <t>-1,58; 9,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 5,33</t>
+          <t>-4,11; 5,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 8,56</t>
+          <t>-1,67; 8,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,0; 15,75</t>
+          <t>2,76; 14,87</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 11,33</t>
+          <t>-1,82; 11,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 6,85</t>
+          <t>-4,13; 6,82</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,3; 11,28</t>
+          <t>2,38; 11,04</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 7,13</t>
+          <t>-1,26; 7,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 6,0</t>
+          <t>-1,49; 5,95</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 132,87</t>
+          <t>-14,72; 129,61</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 73,57</t>
+          <t>-33,03; 79,08</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 111,29</t>
+          <t>-13,51; 116,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,06; 137,9</t>
+          <t>15,41; 129,04</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 101,12</t>
+          <t>-11,41; 101,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 63,4</t>
+          <t>-23,32; 62,89</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>16,02; 108,8</t>
+          <t>16,42; 107,35</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 69,26</t>
+          <t>-9,73; 74,98</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 59,5</t>
+          <t>-10,91; 59,48</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,56</t>
+          <t>1,5; 9,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 5,37</t>
+          <t>-2,58; 5,58</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,53; 10,5</t>
+          <t>2,23; 10,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,15; 10,5</t>
+          <t>1,46; 10,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 4,28</t>
+          <t>-4,17; 4,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,56; 43,88</t>
+          <t>8,68; 44,67</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,83; 8,73</t>
+          <t>2,94; 9,2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 3,76</t>
+          <t>-1,7; 3,8</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,42; 31,86</t>
+          <t>7,78; 32,73</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>7,2; 101,05</t>
+          <t>10,55; 97,3</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 55,16</t>
+          <t>-18,63; 57,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>14,44; 99,43</t>
+          <t>16,23; 110,29</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,07; 71,17</t>
+          <t>6,24; 69,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 28,64</t>
+          <t>-21,38; 28,58</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>46,42; 280,65</t>
+          <t>49,5; 278,07</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>17,93; 68,21</t>
+          <t>18,32; 71,58</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 29,29</t>
+          <t>-11,13; 30,96</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>49,41; 224,6</t>
+          <t>50,53; 247,45</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-14,11; -5,5</t>
+          <t>-14,56; -5,34</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-25,0; -17,9</t>
+          <t>-24,88; -17,56</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-20,76; -12,93</t>
+          <t>-20,87; -12,75</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 0,58</t>
+          <t>-8,8; 0,17</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-22,97; -15,34</t>
+          <t>-23,36; -15,42</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-15,26; -7,05</t>
+          <t>-15,24; -7,06</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -3,88</t>
+          <t>-10,06; -3,87</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-22,72; -17,67</t>
+          <t>-22,67; -17,3</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -11,13</t>
+          <t>-16,83; -11,23</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-49,13; -22,73</t>
+          <t>-49,95; -22,02</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-86,47; -73,94</t>
+          <t>-86,74; -73,38</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-72,73; -54,05</t>
+          <t>-73,37; -53,79</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 2,21</t>
+          <t>-29,77; 0,89</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-76,07; -59,21</t>
+          <t>-76,34; -59,57</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-49,54; -26,95</t>
+          <t>-50,0; -27,71</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-33,72; -14,74</t>
+          <t>-34,63; -15,11</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-79,16; -68,8</t>
+          <t>-79,09; -68,24</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-59,0; -43,45</t>
+          <t>-58,45; -43,88</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 0,7</t>
+          <t>-2,94; 0,83</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-6,8; -3,5</t>
+          <t>-6,95; -3,41</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-5,19; -1,39</t>
+          <t>-4,99; -1,48</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,57</t>
+          <t>1,65; 5,94</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -3,9</t>
+          <t>-7,73; -3,91</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 7,95</t>
+          <t>-3,53; 7,11</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 2,66</t>
+          <t>-0,11; 2,69</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-6,77; -4,13</t>
+          <t>-6,75; -4,21</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,59</t>
+          <t>-3,44; 3,37</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 4,47</t>
+          <t>-16,69; 4,84</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-38,17; -21,72</t>
+          <t>-38,7; -21,26</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-29,54; -9,19</t>
+          <t>-28,16; -9,16</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>6,92; 25,92</t>
+          <t>7,11; 27,76</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-32,3; -17,71</t>
+          <t>-33,12; -18,32</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 37,1</t>
+          <t>-15,54; 32,17</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 13,88</t>
+          <t>-0,55; 14,05</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-33,27; -21,92</t>
+          <t>-33,27; -22,0</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 18,88</t>
+          <t>-17,28; 18,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>23,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,1</t>
+          <t>-12,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>-10,45</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,73; 17,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,16; -4,08</t>
+          <t>-13,25; -4,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,65; 31,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,94; -6,92</t>
+          <t>-17,05; -7,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,71; 22,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -6,72</t>
+          <t>-14,15; -6,97</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-68,16%</t>
+          <t>-69,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-67,88%</t>
+          <t>-68,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-67,75%</t>
+          <t>-69,26%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,07; 172,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-83,08; -38,25</t>
+          <t>-84,55; -39,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,51; 225,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,81; -48,08</t>
+          <t>-79,55; -49,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,92; 176,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-77,25; -52,45</t>
+          <t>-78,43; -54,38</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,02</t>
+          <t>-10,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,63</t>
+          <t>-18,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-14,33</t>
+          <t>-14,47</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -4,78</t>
+          <t>-15,33; -4,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,35; -14,09</t>
+          <t>-24,3; -14,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,75; -10,52</t>
+          <t>-17,94; -10,58</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-44,59%</t>
+          <t>-45,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-53,32%</t>
+          <t>-53,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-49,8%</t>
+          <t>-50,3%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,98; -23,33</t>
+          <t>-61,38; -23,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,74; -42,64</t>
+          <t>-62,89; -42,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,6; -38,63</t>
+          <t>-57,94; -38,85</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>4,13</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 7,31</t>
+          <t>-1,31; 7,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 9,6</t>
+          <t>0,68; 9,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,93</t>
+          <t>1,36; 6,65</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>49,77%</t>
+          <t>46,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>60,94%</t>
+          <t>59,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>58,13%</t>
+          <t>55,09%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 164,48</t>
+          <t>-18,09; 159,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 153,08</t>
+          <t>6,77; 150,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,57; 115,47</t>
+          <t>15,49; 111,05</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,67</t>
+          <t>17,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,37</t>
+          <t>11,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-1,59</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 11,99</t>
+          <t>-0,91; 9,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 8,53</t>
+          <t>-3,69; 8,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,67; 24,92</t>
+          <t>11,13; 23,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 3,06</t>
+          <t>-11,54; 0,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,65; 17,17</t>
+          <t>6,56; 15,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 4,65</t>
+          <t>-6,12; 3,05</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>53,77%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>105,82%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>-25,63%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>84,09%</t>
+          <t>69,58%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>-10,0%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,15; 115,99</t>
+          <t>-7,39; 94,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 78,46</t>
+          <t>-25,11; 80,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>62,19; 167,13</t>
+          <t>53,32; 149,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,12; 19,76</t>
+          <t>-58,55; 1,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>54,84; 128,74</t>
+          <t>37,61; 108,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 33,01</t>
+          <t>-34,59; 20,34</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,8</t>
+          <t>14,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,9</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15,21</t>
+          <t>15,59</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,09; 21,97</t>
+          <t>5,33; 22,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,68; 23,48</t>
+          <t>8,24; 24,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,11; 21,27</t>
+          <t>9,53; 21,61</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>56,71%</t>
+          <t>57,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>49,44%</t>
+          <t>51,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>53,77%</t>
+          <t>55,1%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,5; 112,08</t>
+          <t>18,17; 112,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,31; 85,66</t>
+          <t>21,36; 88,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>28,3; 85,98</t>
+          <t>29,28; 87,38</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,26</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 8,48</t>
+          <t>-1,69; 8,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 6,82</t>
+          <t>-4,19; 6,78</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 5,95</t>
+          <t>-1,59; 5,81</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>18,73%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 116,95</t>
+          <t>-14,57; 113,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 62,89</t>
+          <t>-23,64; 62,21</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 59,48</t>
+          <t>-11,72; 57,84</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>20,22</t>
+          <t>27,69</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>14,5</t>
+          <t>18,91</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,83</t>
+          <t>1,73; 10,49</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,68; 44,67</t>
+          <t>8,78; 57,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,78; 32,73</t>
+          <t>7,3; 43,89</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>55,77%</t>
+          <t>52,14%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>118,05%</t>
+          <t>161,66%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>100,27%</t>
+          <t>130,74%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>16,23; 110,29</t>
+          <t>11,31; 104,68</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>49,5; 278,07</t>
+          <t>50,04; 360,95</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>50,53; 247,45</t>
+          <t>48,61; 337,9</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-16,86</t>
+          <t>-18,86</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-11,14</t>
+          <t>-10,96</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-14,0</t>
+          <t>-15,54</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-20,87; -12,75</t>
+          <t>-25,87; -14,9</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-15,24; -7,06</t>
+          <t>-15,09; -6,94</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-16,83; -11,23</t>
+          <t>-21,44; -12,29</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-64,15%</t>
+          <t>-71,77%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-39,86%</t>
+          <t>-39,22%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-51,6%</t>
+          <t>-57,29%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-73,37; -53,79</t>
+          <t>-88,31; -59,21</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-50,0; -27,71</t>
+          <t>-49,05; -27,23</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-58,45; -43,88</t>
+          <t>-73,94; -47,06</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,53</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -1,48</t>
+          <t>-7,04; -2,51</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,11</t>
+          <t>-4,1; 15,08</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,37</t>
+          <t>-4,45; 6,71</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-19,6%</t>
+          <t>-25,71%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-8,82%</t>
+          <t>-7,75%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-28,16; -9,16</t>
+          <t>-40,3; -15,37</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 32,17</t>
+          <t>-17,98; 67,44</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 18,04</t>
+          <t>-22,39; 35,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 17,13</t>
+          <t>4,49; 17,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 17,79</t>
+          <t>5,13; 18,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -4,18</t>
+          <t>-13,62; -4,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 31,39</t>
+          <t>15,81; 31,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 22,07</t>
+          <t>7,7; 21,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -7,09</t>
+          <t>-18,24; -7,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,71; 22,36</t>
+          <t>11,92; 21,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 18,15</t>
+          <t>7,64; 18,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,15; -6,97</t>
+          <t>-14,23; -6,91</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,07; 172,0</t>
+          <t>27,94; 176,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,2; 186,81</t>
+          <t>32,49; 191,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,55; -39,7</t>
+          <t>-86,67; -41,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,51; 225,24</t>
+          <t>72,2; 217,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,71; 159,58</t>
+          <t>35,47; 148,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,55; -49,71</t>
+          <t>-80,56; -52,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,92; 176,94</t>
+          <t>68,24; 169,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,41; 145,58</t>
+          <t>41,75; 139,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-78,43; -54,38</t>
+          <t>-79,31; -53,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,45; -7,02</t>
+          <t>-15,97; -6,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,03; -12,71</t>
+          <t>-21,33; -12,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -4,82</t>
+          <t>-15,18; -4,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,22; -9,21</t>
+          <t>-20,27; -9,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -20,92</t>
+          <t>-30,87; -20,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,3; -14,12</t>
+          <t>-23,78; -13,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -9,25</t>
+          <t>-16,81; -9,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,66; -18,02</t>
+          <t>-24,94; -18,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,94; -10,58</t>
+          <t>-18,23; -10,74</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,79; -34,23</t>
+          <t>-63,66; -33,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,96; -64,11</t>
+          <t>-83,86; -62,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,38; -23,11</t>
+          <t>-61,27; -21,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,15; -28,76</t>
+          <t>-53,45; -29,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,15; -65,35</t>
+          <t>-81,51; -64,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,89; -42,79</t>
+          <t>-62,27; -42,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,65; -34,88</t>
+          <t>-54,57; -35,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-80,06; -67,88</t>
+          <t>-80,3; -67,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,94; -38,85</t>
+          <t>-58,84; -39,95</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,81</t>
+          <t>3,42; 12,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 10,18</t>
+          <t>1,7; 10,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 7,02</t>
+          <t>-1,39; 6,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,25; 19,47</t>
+          <t>8,27; 19,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 11,44</t>
+          <t>1,71; 11,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 9,43</t>
+          <t>1,01; 9,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 14,56</t>
+          <t>7,24; 14,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 9,63</t>
+          <t>2,88; 9,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,65</t>
+          <t>1,31; 7,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,96; 320,18</t>
+          <t>40,69; 310,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,42; 240,82</t>
+          <t>16,33; 252,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,09; 159,16</t>
+          <t>-19,8; 171,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>74,03; 283,51</t>
+          <t>68,4; 284,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,58; 162,86</t>
+          <t>15,02; 173,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,77; 150,74</t>
+          <t>6,34; 146,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>85,37; 244,41</t>
+          <t>79,98; 250,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,36; 155,73</t>
+          <t>29,47; 152,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,49; 111,05</t>
+          <t>12,39; 122,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 9,87</t>
+          <t>-1,47; 9,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 9,61</t>
+          <t>-0,8; 9,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 8,71</t>
+          <t>-3,62; 7,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,13; 23,03</t>
+          <t>10,62; 23,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 14,42</t>
+          <t>1,58; 14,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 0,41</t>
+          <t>-11,28; 0,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,56; 15,18</t>
+          <t>6,78; 15,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 10,5</t>
+          <t>2,31; 10,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 3,05</t>
+          <t>-5,81; 2,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 94,06</t>
+          <t>-9,99; 94,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 89,17</t>
+          <t>-5,97; 88,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 80,41</t>
+          <t>-23,97; 69,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>53,32; 149,51</t>
+          <t>49,14; 147,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,34; 93,02</t>
+          <t>7,87; 89,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,55; 1,41</t>
+          <t>-54,79; 2,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,61; 108,55</t>
+          <t>36,99; 110,15</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,9; 72,21</t>
+          <t>12,94; 74,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 20,34</t>
+          <t>-34,81; 19,44</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,73; -6,48</t>
+          <t>-20,95; -6,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 3,21</t>
+          <t>-12,82; 3,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,33; 22,31</t>
+          <t>5,74; 23,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 3,22</t>
+          <t>-14,85; 3,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-19,29; -1,77</t>
+          <t>-18,08; -0,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,24; 24,01</t>
+          <t>9,04; 24,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-15,07; -3,41</t>
+          <t>-15,55; -3,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,29; -1,5</t>
+          <t>-13,38; -1,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,53; 21,61</t>
+          <t>9,43; 20,89</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-74,18; -31,27</t>
+          <t>-73,41; -29,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,01; 15,58</t>
+          <t>-45,11; 15,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18,17; 112,55</t>
+          <t>19,96; 117,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 11,06</t>
+          <t>-39,35; 11,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-50,73; -5,9</t>
+          <t>-48,87; -0,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>21,36; 88,24</t>
+          <t>22,94; 91,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-47,56; -12,91</t>
+          <t>-49,76; -13,86</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-42,3; -5,4</t>
+          <t>-42,15; -6,37</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>29,28; 87,38</t>
+          <t>28,79; 82,96</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 9,83</t>
+          <t>-2,0; 9,73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 5,8</t>
+          <t>-4,3; 6,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 8,28</t>
+          <t>-1,76; 8,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,76; 14,87</t>
+          <t>2,34; 14,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 11,53</t>
+          <t>-1,98; 10,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 6,78</t>
+          <t>-4,27; 6,31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,38; 11,04</t>
+          <t>2,32; 11,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 7,25</t>
+          <t>-1,29; 6,95</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 5,81</t>
+          <t>-0,82; 6,0</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 129,61</t>
+          <t>-19,26; 124,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 79,08</t>
+          <t>-37,01; 82,07</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 113,73</t>
+          <t>-16,75; 114,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,41; 129,04</t>
+          <t>15,32; 136,14</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 101,87</t>
+          <t>-12,33; 93,87</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 62,21</t>
+          <t>-24,99; 57,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>16,42; 107,35</t>
+          <t>15,73; 109,78</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 74,98</t>
+          <t>-11,49; 66,31</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 57,84</t>
+          <t>-6,7; 58,86</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,5; 9,35</t>
+          <t>1,32; 9,15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 5,58</t>
+          <t>-1,88; 5,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,73; 10,49</t>
+          <t>2,3; 10,58</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,46; 10,59</t>
+          <t>1,53; 10,7</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 4,25</t>
+          <t>-4,22; 4,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,78; 57,21</t>
+          <t>8,86; 55,58</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,94; 9,2</t>
+          <t>2,74; 8,65</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 3,8</t>
+          <t>-1,97; 3,92</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,3; 43,89</t>
+          <t>7,37; 46,67</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>10,55; 97,3</t>
+          <t>8,52; 89,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 57,82</t>
+          <t>-14,31; 56,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>11,31; 104,68</t>
+          <t>16,1; 107,63</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>6,24; 69,11</t>
+          <t>7,33; 71,56</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 28,58</t>
+          <t>-21,68; 28,45</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>50,04; 360,95</t>
+          <t>49,11; 394,79</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,32; 71,58</t>
+          <t>16,81; 65,39</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 30,96</t>
+          <t>-13,04; 29,84</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>48,61; 337,9</t>
+          <t>49,82; 366,95</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-14,56; -5,34</t>
+          <t>-13,65; -5,37</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-24,88; -17,56</t>
+          <t>-24,88; -18,15</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-25,87; -14,9</t>
+          <t>-24,57; -14,44</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 0,17</t>
+          <t>-8,69; 0,47</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-23,36; -15,42</t>
+          <t>-22,97; -15,31</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-15,09; -6,94</t>
+          <t>-15,02; -6,86</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -3,87</t>
+          <t>-9,93; -3,72</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -17,3</t>
+          <t>-22,63; -17,35</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-21,44; -12,29</t>
+          <t>-20,49; -12,22</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-49,95; -22,02</t>
+          <t>-49,02; -22,27</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-86,74; -73,38</t>
+          <t>-86,83; -74,8</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-88,31; -59,21</t>
+          <t>-87,2; -58,11</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 0,89</t>
+          <t>-28,49; 1,83</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-76,34; -59,57</t>
+          <t>-76,14; -59,53</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-49,05; -27,23</t>
+          <t>-48,95; -26,03</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-34,63; -15,11</t>
+          <t>-34,38; -14,07</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-79,09; -68,24</t>
+          <t>-79,3; -68,5</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-73,94; -47,06</t>
+          <t>-72,43; -46,96</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,83</t>
+          <t>-3,11; 0,61</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -3,41</t>
+          <t>-7,14; -3,5</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-7,04; -2,51</t>
+          <t>-7,28; -2,44</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,94</t>
+          <t>1,42; 5,88</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -3,91</t>
+          <t>-7,71; -3,86</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 15,08</t>
+          <t>-3,87; 15,33</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,69</t>
+          <t>-0,08; 2,63</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -4,21</t>
+          <t>-6,77; -4,24</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 6,71</t>
+          <t>-4,67; 6,37</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 4,84</t>
+          <t>-17,0; 3,99</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-38,7; -21,26</t>
+          <t>-40,02; -21,84</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-40,3; -15,37</t>
+          <t>-42,48; -15,11</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>7,11; 27,76</t>
+          <t>5,97; 27,48</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-33,12; -18,32</t>
+          <t>-32,82; -18,08</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 67,44</t>
+          <t>-17,18; 68,27</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 14,05</t>
+          <t>-0,34; 13,74</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-33,27; -22,0</t>
+          <t>-33,16; -22,08</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 35,91</t>
+          <t>-23,43; 32,19</t>
         </is>
       </c>
     </row>
